--- a/Test_02.xlsx
+++ b/Test_02.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="128">
   <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
@@ -272,25 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了画面から最初の画面に戻る。</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前（姓）</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -819,7 +800,7 @@
     <t>4ー13</t>
   </si>
   <si>
-    <t>確認画面で表示した名前（姓）がデータベースに登録される。</t>
+    <t>確認画面で表示したデータがデータベースに登録される。もしデータベース接続失敗した場合、「失敗しました」とテキスト表示する。</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
     </rPh>
@@ -829,6 +810,41 @@
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示した名前（姓）がデータベースに登録される。テーブルのカラム名はfamily_name。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
     <rPh sb="9" eb="11">
       <t>ナマエ</t>
     </rPh>
@@ -838,10 +854,13 @@
     <rPh sb="22" eb="24">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示した名前（名）がデータベースに登録される。</t>
+    <rPh sb="36" eb="37">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示した名前（名）がデータベースに登録される。テーブルのカラム名はlast_name。</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
     </rPh>
@@ -860,10 +879,13 @@
     <rPh sb="22" eb="24">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示したカナ（姓）がデータベースに登録される。</t>
+    <rPh sb="36" eb="37">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示したカナ（姓）がデータベースに登録される。テーブルのカラム名はfamily_name_kana。</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
     </rPh>
@@ -879,10 +901,13 @@
     <rPh sb="22" eb="24">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示したカナ（名）がデータベースに登録される。</t>
+    <rPh sb="36" eb="37">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示したカナ（名）がデータベースに登録される。テーブルのカラム名はlast_name_kana。</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
     </rPh>
@@ -898,10 +923,13 @@
     <rPh sb="22" eb="24">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示したメールアドレスがデータベースに登録される。</t>
+    <rPh sb="36" eb="37">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示したメールアドレスがデータベースに登録される。テーブルのカラム名はmail。</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
     </rPh>
@@ -914,10 +942,13 @@
     <rPh sb="24" eb="26">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示した性別がデータベースに登録される。</t>
+    <rPh sb="38" eb="39">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示した郵便番号がデータベースに登録される。テーブルのカラム名はpostal_code。</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
     </rPh>
@@ -927,16 +958,165 @@
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
+    <rPh sb="9" eb="13">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示した都道府県がデータベースに登録される。テーブルのカラム名はprefecture。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示した市区町村がデータベースに登録される。テーブルのカラム名はaddress_1。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示した番地がデータベースに登録される。テーブルのカラム名はaddress_2。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示した性別がデータベースに登録される。テーブルのカラム名はgender。Int型で、0の時が「男」、1の時が「女」である。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
     <rPh sb="9" eb="11">
       <t>セイベツ</t>
     </rPh>
     <rPh sb="19" eb="21">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示した郵便番号がデータベースに登録される。</t>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録がされた時間がデータベースに登録される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO（以下すべて、「確認する」ボタンでデータベースに登録されてしまう欠陥あり）</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示したアカウント権限がデータベースに登録される。テーブルのカラム名はauthority.。0の時が「一般」で、1の時が「管理者」である。</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
     </rPh>
@@ -946,136 +1126,264 @@
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="9" eb="13">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="14" eb="16">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示した都道府県がデータベースに登録される。</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
+    <rPh sb="38" eb="39">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了画面から最初の画面に戻る。もちろんデータベースに登録したあとなので、前に入力した内容は破棄されている状態である。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ガメン</t>
     </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面で表示したパスワードがデータベースに登録される。セキュリティのためハッシュ化されている。ハッシュ化のアルゴリズムやオプションの設定値は任意である。テーブルのカラム名はpassword。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="9" eb="13">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示した市区町村がデータベースに登録される。</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>シクチョウソン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示した番地がデータベースに登録される。</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示したアカウント権限がデータベースに登録される。</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示したパスワードがデータベースに登録される。セキュリティのためハッシュ化されている。</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
     <rPh sb="22" eb="24">
       <t>トウロク</t>
     </rPh>
     <rPh sb="41" eb="42">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認画面で表示したデータがデータベースに登録される。もしデータベース接続失敗した場合、「失敗しました」とテキスト表示する。</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="52" eb="53">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4ー14</t>
+  </si>
+  <si>
+    <t>2ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ー2</t>
+  </si>
+  <si>
+    <t>2ー3</t>
+  </si>
+  <si>
+    <t>2ー4</t>
+  </si>
+  <si>
+    <t>2ー5</t>
+  </si>
+  <si>
+    <t>2ー6</t>
+  </si>
+  <si>
+    <t>2ー7</t>
+  </si>
+  <si>
+    <t>2ー8</t>
+  </si>
+  <si>
+    <t>2ー9</t>
+  </si>
+  <si>
+    <t>2ー10</t>
+  </si>
+  <si>
+    <t>2ー11</t>
+  </si>
+  <si>
+    <t>2ー12</t>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ー13</t>
+  </si>
+  <si>
+    <t>登録画面で入力した内容が確認画面で表示されている。</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="14" eb="16">
       <t>ガメン</t>
     </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面で入力した内容が確認画面で表示されている。パスワードはセキュリティのため●で文字数分表示する。</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
     <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
+    <rPh sb="42" eb="45">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1085,7 +1393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,6 +1432,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1133,7 +1467,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1156,17 +1490,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1185,6 +1527,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1467,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1482,918 +1839,1310 @@
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="33.109375" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.21875" customWidth="1"/>
     <col min="10" max="10" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5">
         <v>45397</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="26.4" customHeight="1">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5">
         <v>45397</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24.6" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" ht="33" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33.6" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="26.4">
+      <c r="A7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="26.4">
+      <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="26.4">
+      <c r="A9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="52.8">
+      <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="26.4">
+      <c r="A11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="26.4">
+      <c r="A12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="26.4">
+      <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="26.4">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="26.4">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="26.4">
+      <c r="A16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="26.4">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="55.2" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45.6" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5">
         <v>45397</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="39" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="20" spans="1:10" ht="39.6">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="5">
         <v>45397</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="39.6">
-      <c r="A7" s="4" t="s">
+    <row r="21" spans="1:10" ht="39.6">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="39.6">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="39.6">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="39.6">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="39.6">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="39.6">
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="39.6">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="42.6" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="43.2" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="52.8">
+      <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="39.6">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="39.6">
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="39.6">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="39.6">
+      <c r="A34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="39.6">
+      <c r="A35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="79.2">
+      <c r="A36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="52.8">
+      <c r="A37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="39.6">
+      <c r="A38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="39.6">
+      <c r="A39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="39.6">
+      <c r="A40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="39.6">
+      <c r="A41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="52.8">
+      <c r="A42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="5">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="26.4">
+      <c r="A43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="5">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="52.8">
+      <c r="A44" s="1">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="E44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="39.6">
-      <c r="A8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="39.6">
-      <c r="A9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="39.6">
-      <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="39.6">
-      <c r="A11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="39.6">
-      <c r="A12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="39.6">
-      <c r="A13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="39.6">
-      <c r="A14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="39.6">
-      <c r="A15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="39.6">
-      <c r="A16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="39.6">
-      <c r="A17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="55.2" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="26.4">
-      <c r="A19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="26.4">
-      <c r="A20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="26.4">
-      <c r="A21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="26.4">
-      <c r="A22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="26.4">
-      <c r="A23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="39.6">
-      <c r="A24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="26.4">
-      <c r="A25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="26.4">
-      <c r="A26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="26.4">
-      <c r="A27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="26.4">
-      <c r="A28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="26.4">
-      <c r="A29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="26.4">
-      <c r="A30" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="6">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="6">
-        <v>45397</v>
+      <c r="I44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="5">
+        <v>45398</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test_02.xlsx
+++ b/Test_02.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="170">
   <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
@@ -831,10 +831,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認画面で表示した名前（姓）がデータベースに登録される。テーブルのカラム名はfamily_name。</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -1096,26 +1092,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NO（以下すべて、「確認する」ボタンでデータベースに登録されてしまう欠陥あり）</t>
-    <rPh sb="3" eb="5">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ケッカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認画面で表示したアカウント権限がデータベースに登録される。テーブルのカラム名はauthority.。0の時が「一般」で、1の時が「管理者」である。</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -1387,13 +1363,397 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlからlist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」を押す。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlからkist.phpに遷移する。</t>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから登録されているデータが正しく抽出されている。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「更新」ボタンを押すと、update.phpに遷移する。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除」ボタンを押すと、delete.phpに遷移する。</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlの「アカウント一覧」を押す。単体テストで書いたように表示さえているか確認。</t>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから登録されているデータが正しく抽出されている。「0」のときは「男」、「1」のときは「女」と表示させる。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから登録されているデータが正しく抽出されている。「0」のときは「一般」、「1」のときは「管理者」と表示させる。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから登録されているデータが正しく抽出されている。「0」のときは「有効」、「1」のときは「無効」と表示させる。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから登録されているデータが正しく抽出されている。ただし、時間は不要なので「年、月、日」のみ表示。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから登録されているデータが正しく抽出されている。ただし、時間は不要なので「年、月、日」のみ表示。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「更新」を押す。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除」を押す。</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移先は未実装</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田航昂</t>
+    <rPh sb="0" eb="3">
+      <t>シバタコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6ー2</t>
+  </si>
+  <si>
+    <t>6ー3</t>
+  </si>
+  <si>
+    <t>6ー4</t>
+  </si>
+  <si>
+    <t>6ー5</t>
+  </si>
+  <si>
+    <t>6ー6</t>
+  </si>
+  <si>
+    <t>6ー7</t>
+  </si>
+  <si>
+    <t>6ー8</t>
+  </si>
+  <si>
+    <t>6ー9</t>
+  </si>
+  <si>
+    <t>6ー10</t>
+  </si>
+  <si>
+    <t>6ー11</t>
+  </si>
+  <si>
+    <t>6ー12</t>
+  </si>
+  <si>
+    <t>6ー13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1427,22 +1787,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1507,7 +1851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1529,20 +1873,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1824,13 +2171,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
@@ -1838,19 +2185,19 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="33.109375" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.21875" customWidth="1"/>
     <col min="10" max="10" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -1880,7 +2227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1910,9 +2257,9 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.4" customHeight="1">
+    <row r="4" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -1940,15 +2287,15 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1">
+    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>116</v>
+      <c r="C5" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -1957,7 +2304,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
@@ -1970,15 +2317,15 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="33.6" customHeight="1">
+    <row r="6" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>117</v>
+      <c r="C6" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -1987,7 +2334,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
@@ -2000,15 +2347,15 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="26.4">
+    <row r="7" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>118</v>
+      <c r="C7" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -2017,7 +2364,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
@@ -2030,15 +2377,15 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="26.4">
+    <row r="8" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>119</v>
+      <c r="C8" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -2047,7 +2394,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
@@ -2060,15 +2407,15 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="26.4">
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>120</v>
+      <c r="C9" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2077,7 +2424,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
@@ -2090,14 +2437,14 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="52.8">
+    <row r="10" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2107,7 +2454,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
@@ -2120,15 +2467,15 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26.4">
+    <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>121</v>
+      <c r="C11" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -2137,7 +2484,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
@@ -2150,14 +2497,14 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="26.4">
+    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2167,7 +2514,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -2180,15 +2527,15 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="26.4">
+    <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>122</v>
+      <c r="C13" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -2197,7 +2544,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
@@ -2210,15 +2557,15 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.4">
+    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>123</v>
+      <c r="C14" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -2227,7 +2574,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
@@ -2240,15 +2587,15 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="26.4">
+    <row r="15" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>124</v>
+      <c r="C15" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -2257,7 +2604,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
@@ -2270,14 +2617,14 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="26.4">
+    <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2287,7 +2634,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
@@ -2300,7 +2647,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.4">
+    <row r="17" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -2330,7 +2677,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="55.2" customHeight="1">
+    <row r="18" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -2360,7 +2707,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45.6" customHeight="1">
+    <row r="19" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -2390,7 +2737,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="39.6">
+    <row r="20" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -2420,7 +2767,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="39.6">
+    <row r="21" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2450,7 +2797,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="39.6">
+    <row r="22" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -2480,7 +2827,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="39.6">
+    <row r="23" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -2510,7 +2857,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="39.6">
+    <row r="24" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -2540,7 +2887,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="39.6">
+    <row r="25" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -2570,7 +2917,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="39.6">
+    <row r="26" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -2600,7 +2947,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="39.6">
+    <row r="27" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -2630,7 +2977,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="42.6" customHeight="1">
+    <row r="28" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -2660,7 +3007,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="43.2" customHeight="1">
+    <row r="29" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -2690,7 +3037,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="52.8">
+    <row r="30" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
@@ -2710,8 +3057,8 @@
         <v>84</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="9" t="s">
-        <v>98</v>
+      <c r="H30" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>15</v>
@@ -2720,7 +3067,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="39.6">
+    <row r="31" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2737,11 +3084,11 @@
         <v>25</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="9" t="s">
-        <v>99</v>
+      <c r="H31" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>15</v>
@@ -2750,7 +3097,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="39.6">
+    <row r="32" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -2767,11 +3114,11 @@
         <v>25</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="9" t="s">
-        <v>99</v>
+      <c r="H32" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
@@ -2780,7 +3127,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="39.6">
+    <row r="33" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -2797,11 +3144,11 @@
         <v>25</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="9" t="s">
-        <v>99</v>
+      <c r="H33" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
@@ -2810,7 +3157,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="39.6">
+    <row r="34" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -2827,11 +3174,11 @@
         <v>25</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="7" t="s">
-        <v>85</v>
+      <c r="H34" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>15</v>
@@ -2840,7 +3187,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="39.6">
+    <row r="35" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -2857,11 +3204,11 @@
         <v>25</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="7" t="s">
-        <v>85</v>
+      <c r="H35" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>15</v>
@@ -2870,7 +3217,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="79.2">
+    <row r="36" spans="1:10" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -2887,11 +3234,11 @@
         <v>25</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="7" t="s">
-        <v>85</v>
+      <c r="H36" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>15</v>
@@ -2900,7 +3247,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="52.8">
+    <row r="37" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
@@ -2917,11 +3264,11 @@
         <v>25</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="7" t="s">
-        <v>85</v>
+      <c r="H37" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>15</v>
@@ -2930,7 +3277,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="39.6">
+    <row r="38" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
@@ -2947,11 +3294,11 @@
         <v>25</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="7" t="s">
-        <v>85</v>
+      <c r="H38" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>15</v>
@@ -2960,7 +3307,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39.6">
+    <row r="39" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
@@ -2977,11 +3324,11 @@
         <v>25</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="7" t="s">
-        <v>85</v>
+      <c r="H39" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>15</v>
@@ -2990,7 +3337,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="39.6">
+    <row r="40" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>68</v>
       </c>
@@ -3007,11 +3354,11 @@
         <v>25</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="7" t="s">
-        <v>85</v>
+      <c r="H40" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>15</v>
@@ -3020,7 +3367,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39.6">
+    <row r="41" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>69</v>
       </c>
@@ -3037,11 +3384,11 @@
         <v>25</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="7" t="s">
-        <v>85</v>
+      <c r="H41" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>15</v>
@@ -3050,7 +3397,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="52.8">
+    <row r="42" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
@@ -3067,11 +3414,11 @@
         <v>25</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="7" t="s">
-        <v>85</v>
+      <c r="H42" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>15</v>
@@ -3080,15 +3427,15 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="26.4">
+    <row r="43" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>96</v>
+      <c r="C43" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>70</v>
@@ -3097,11 +3444,11 @@
         <v>25</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="7" t="s">
-        <v>85</v>
+      <c r="H43" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>15</v>
@@ -3110,7 +3457,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="52.8">
+    <row r="44" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>5</v>
       </c>
@@ -3127,7 +3474,7 @@
         <v>26</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
@@ -3138,6 +3485,400 @@
       </c>
       <c r="J44" s="5">
         <v>45398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J47" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J48" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J49" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J50" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J51" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J52" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J53" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J54" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J56" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58" s="5">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J59" s="5">
+        <v>45403</v>
       </c>
     </row>
   </sheetData>

--- a/Test_02.xlsx
+++ b/Test_02.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="178">
   <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
@@ -1488,13 +1488,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>index.htmlからkist.phpに遷移する。</t>
-    <rPh sb="21" eb="23">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DBから登録されているデータが正しく抽出されている。</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -1747,13 +1740,73 @@
   </si>
   <si>
     <t>6ー13</t>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグをデータベースに登録する。「0」のときは「有効」、「1」のときは「無効」にする。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlからｌist.phpに遷移する。</t>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.phpからupdate.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.phpからdelete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO(デフォルトで無効になっている）</t>
+    <rPh sb="9" eb="11">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1802,6 +1855,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1835,14 +1904,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1851,7 +1920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1864,16 +1933,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1889,6 +1952,21 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2173,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2192,38 +2270,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2253,7 +2331,7 @@
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2283,7 +2361,7 @@
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2294,7 +2372,7 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2313,7 +2391,7 @@
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2324,7 +2402,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2343,7 +2421,7 @@
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2354,7 +2432,7 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2373,7 +2451,7 @@
       <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2384,7 +2462,7 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2403,7 +2481,7 @@
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2414,7 +2492,7 @@
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2433,7 +2511,7 @@
       <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2444,7 +2522,7 @@
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2463,7 +2541,7 @@
       <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2474,7 +2552,7 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2493,7 +2571,7 @@
       <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2504,7 +2582,7 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2523,7 +2601,7 @@
       <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2534,7 +2612,7 @@
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2553,7 +2631,7 @@
       <c r="I13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2564,7 +2642,7 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2583,7 +2661,7 @@
       <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2594,7 +2672,7 @@
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2613,7 +2691,7 @@
       <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2624,7 +2702,7 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2643,7 +2721,7 @@
       <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>45398</v>
       </c>
     </row>
@@ -2673,7 +2751,7 @@
       <c r="I17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2703,7 +2781,7 @@
       <c r="I18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2733,7 +2811,7 @@
       <c r="I19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2763,7 +2841,7 @@
       <c r="I20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2793,7 +2871,7 @@
       <c r="I21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2823,7 +2901,7 @@
       <c r="I22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2853,7 +2931,7 @@
       <c r="I23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2883,7 +2961,7 @@
       <c r="I24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2913,7 +2991,7 @@
       <c r="I25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2943,7 +3021,7 @@
       <c r="I26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -2973,7 +3051,7 @@
       <c r="I27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3003,7 +3081,7 @@
       <c r="I28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3033,7 +3111,7 @@
       <c r="I29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3041,7 +3119,7 @@
       <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3057,13 +3135,13 @@
         <v>84</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="10" t="s">
-        <v>125</v>
+      <c r="H30" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3071,7 +3149,7 @@
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3087,13 +3165,13 @@
         <v>85</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3101,7 +3179,7 @@
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3117,13 +3195,13 @@
         <v>86</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3131,7 +3209,7 @@
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3147,13 +3225,13 @@
         <v>87</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3161,7 +3239,7 @@
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3177,13 +3255,13 @@
         <v>88</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3191,7 +3269,7 @@
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3207,13 +3285,13 @@
         <v>89</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3221,7 +3299,7 @@
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3237,13 +3315,13 @@
         <v>99</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3251,7 +3329,7 @@
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3267,13 +3345,13 @@
         <v>94</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="10" t="s">
-        <v>125</v>
+      <c r="H37" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3281,7 +3359,7 @@
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3297,13 +3375,13 @@
         <v>90</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3311,7 +3389,7 @@
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3327,13 +3405,13 @@
         <v>91</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3341,7 +3419,7 @@
       <c r="A40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3357,13 +3435,13 @@
         <v>92</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3371,7 +3449,7 @@
       <c r="A41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3387,13 +3465,13 @@
         <v>93</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
         <v>45397</v>
       </c>
     </row>
@@ -3401,7 +3479,7 @@
       <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3417,78 +3495,108 @@
         <v>97</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>45397</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>70</v>
+        <v>170</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="4">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="10" t="s">
+      <c r="G44" s="1"/>
+      <c r="H44" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="5">
+      <c r="I44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="4">
         <v>45398</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="46" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="5">
+      <c r="I46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="4">
         <v>45398</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3503,23 +3611,23 @@
       <c r="E47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>143</v>
+      <c r="F47" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="4">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="J47" s="5">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>127</v>
@@ -3531,25 +3639,25 @@
         <v>139</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J48" s="5">
+      <c r="J48" s="4">
         <v>45403</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>159</v>
+      <c r="A49" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>127</v>
@@ -3561,25 +3669,25 @@
         <v>139</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>45403</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>160</v>
+      <c r="A50" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>127</v>
@@ -3591,25 +3699,25 @@
         <v>139</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J50" s="5">
+      <c r="J50" s="4">
         <v>45403</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>161</v>
+      <c r="A51" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>127</v>
@@ -3621,25 +3729,25 @@
         <v>139</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J51" s="5">
+      <c r="J51" s="4">
         <v>45403</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>162</v>
+      <c r="A52" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>127</v>
@@ -3651,25 +3759,25 @@
         <v>139</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J52" s="5">
+      <c r="J52" s="4">
         <v>45403</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>163</v>
+    <row r="53" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>127</v>
@@ -3681,25 +3789,25 @@
         <v>139</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J53" s="5">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>164</v>
+      <c r="J53" s="4">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>127</v>
@@ -3711,25 +3819,25 @@
         <v>139</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J54" s="5">
+      <c r="J54" s="4">
         <v>45403</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>165</v>
+    <row r="55" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>127</v>
@@ -3741,25 +3849,25 @@
         <v>139</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J55" s="5">
+      <c r="J55" s="4">
         <v>45403</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>166</v>
+    <row r="56" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>127</v>
@@ -3771,25 +3879,25 @@
         <v>139</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="J56" s="4">
         <v>45403</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>167</v>
+      <c r="A57" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>127</v>
@@ -3801,28 +3909,28 @@
         <v>139</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J57" s="5">
+      <c r="J57" s="4">
         <v>45403</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
-        <v>168</v>
+      <c r="A58" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>140</v>
@@ -3831,30 +3939,30 @@
         <v>139</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>45403</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
-        <v>169</v>
+      <c r="A59" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>141</v>
@@ -3863,21 +3971,21 @@
         <v>139</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F59" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J59" s="5">
+      <c r="J59" s="4">
         <v>45403</v>
       </c>
     </row>

--- a/Test_02.xlsx
+++ b/Test_02.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="379">
   <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
@@ -1742,10 +1742,6 @@
     <t>6ー13</t>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除フラグ</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -1773,10 +1769,6 @@
     <rPh sb="38" eb="40">
       <t>ムコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NO</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1795,10 +1787,1459 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NO(デフォルトで無効になっている）</t>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.phpからdelete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.phpの「削除」ボタンを押す。</t>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.phpの「削除」ボタンを押して、DBから正しく選択したデータが抽出されている。</t>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7ー2</t>
+  </si>
+  <si>
+    <t>7ー3</t>
+  </si>
+  <si>
+    <t>7ー4</t>
+  </si>
+  <si>
+    <t>7ー5</t>
+  </si>
+  <si>
+    <t>7ー6</t>
+  </si>
+  <si>
+    <t>7ー7</t>
+  </si>
+  <si>
+    <t>7ー8</t>
+  </si>
+  <si>
+    <t>7ー9</t>
+  </si>
+  <si>
+    <t>7ー10</t>
+  </si>
+  <si>
+    <t>7ー11</t>
+  </si>
+  <si>
+    <t>7ー12</t>
+  </si>
+  <si>
+    <t>8ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete.phpからdelete_confirm.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8ー2</t>
+  </si>
+  <si>
+    <t>8ー3</t>
+  </si>
+  <si>
+    <t>遷移、表示</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete.phpの「確認する」ボタンを押す。</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「本当に削除してよろしいですか」と赤字で表示。</t>
+    <rPh sb="1" eb="3">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_confirm.phpからdelete_complete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除する」ボタンが正しい位置に表示されている。ボタンを押すと、delete_complete.phpに遷移する。</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9ー2</t>
+  </si>
+  <si>
+    <t>9ー3</t>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_confirm.phpの「削除する」ボタンを押す。</t>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除が完了しました」と赤字で表示。</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「TOPへ戻る」ボタンが正しい位置に表示されている。</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アカウントの削除フラグを「1」に変更する。（1＝無効）</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.phpからupdate.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.phpの「更新」ボタンを押す。</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.phpの「更新」ボタンを押して、DBから正しく指定したデータが抽出できている。</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ー2</t>
+  </si>
+  <si>
+    <t>10ー3</t>
+  </si>
+  <si>
+    <t>10ー4</t>
+  </si>
+  <si>
+    <t>10ー5</t>
+  </si>
+  <si>
+    <t>10ー6</t>
+  </si>
+  <si>
+    <t>10ー7</t>
+  </si>
+  <si>
+    <t>10ー8</t>
+  </si>
+  <si>
+    <t>10ー9</t>
+  </si>
+  <si>
+    <t>10ー10</t>
+  </si>
+  <si>
+    <t>10ー11</t>
+  </si>
+  <si>
+    <t>10ー12</t>
+  </si>
+  <si>
+    <t>11ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンが正しい位置に表示されている。ボタンを押すと、list.phpに戻る。</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_confirm.phpからdelete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_confirm.phpからdelete_confirm.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update.phpからupdate_confirm.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミヤコドウフ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移、表示</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11ー2</t>
+  </si>
+  <si>
+    <t>11ー3</t>
+  </si>
+  <si>
+    <t>11ー4</t>
+  </si>
+  <si>
+    <t>11ー5</t>
+  </si>
+  <si>
+    <t>11ー6</t>
+  </si>
+  <si>
+    <t>11ー7</t>
+  </si>
+  <si>
+    <t>11ー8</t>
+  </si>
+  <si>
+    <t>11ー9</t>
+  </si>
+  <si>
+    <t>11ー10</t>
+  </si>
+  <si>
+    <t>11ー11</t>
+  </si>
+  <si>
+    <t>11ー12</t>
+  </si>
+  <si>
+    <t>update.phpの「確認する」ボタンを押す。</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update.phpで表示した内容を表示させる。</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update.phpからupdate.php(update_confirm.php)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力の場合は、update_confirm.phpに遷移させず、update.phpから遷移させない。その時、項目の下に赤字でエラー文を出す。</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードに関しては、DBから抽出できないので、入力チェックは行わない。</t>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12ー2</t>
+  </si>
+  <si>
+    <t>12ー3</t>
+  </si>
+  <si>
+    <t>12ー4</t>
+  </si>
+  <si>
+    <t>12ー5</t>
+  </si>
+  <si>
+    <t>12ー6</t>
+  </si>
+  <si>
+    <t>12ー7</t>
+  </si>
+  <si>
+    <t>12ー8</t>
+  </si>
+  <si>
+    <t>12ー9</t>
+  </si>
+  <si>
+    <t>12ー10</t>
+  </si>
+  <si>
+    <t>12ー11</t>
+  </si>
+  <si>
+    <t>12ー12</t>
+  </si>
+  <si>
+    <t>未入力の場合はないので、エラーチェックの対象外とする。</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どちらかを選択している状態になるので、エラーチェックの対象外とする。</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力の場合はなく、どこかの都道府県を選択している状態になるので、エラーチェックは行わない。</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_confirm.phpからupdate.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力保持</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_confirm.phpの「前に戻る」ボタンを押す。</t>
+    <rPh sb="20" eb="21">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新確認画面で表示させた内容を、update.phpに戻ったときにデータ保持している。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13ー2</t>
+  </si>
+  <si>
+    <t>13ー3</t>
+  </si>
+  <si>
+    <t>13ー4</t>
+  </si>
+  <si>
+    <t>13ー5</t>
+  </si>
+  <si>
+    <t>13ー6</t>
+  </si>
+  <si>
+    <t>13ー7</t>
+  </si>
+  <si>
+    <t>13ー8</t>
+  </si>
+  <si>
+    <t>13ー9</t>
+  </si>
+  <si>
+    <t>13ー10</t>
+  </si>
+  <si>
+    <t>13ー11</t>
+  </si>
+  <si>
+    <t>13ー12</t>
+  </si>
+  <si>
+    <t>14ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_confirm.phpからupdate_complete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB登録</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_confirm.phpの「更新する」ボタンを押し、update_complete.phpに遷移させる。</t>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新確認画面で表示させた内容をDBに登録する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新確認画面で表示させた内容を、update.phpに戻ったときにデータ保持している。セキュリティのため●で表示させる。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新確認画面で表示させた内容をDBに登録する。男なら「0」、女なら「1」。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新確認画面で表示させた内容をDBに登録する。「0」が一般で、「1」が管理者。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新があった場合、更新時間をDBに登録する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
     <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データが有効なら「0」、無効なら「1」でDBに登録する。</t>
+    <rPh sb="4" eb="6">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>ムコウ</t>
     </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14ー2</t>
+  </si>
+  <si>
+    <t>14ー3</t>
+  </si>
+  <si>
+    <t>14ー4</t>
+  </si>
+  <si>
+    <t>14ー5</t>
+  </si>
+  <si>
+    <t>14ー6</t>
+  </si>
+  <si>
+    <t>14ー7</t>
+  </si>
+  <si>
+    <t>14ー8</t>
+  </si>
+  <si>
+    <t>14ー9</t>
+  </si>
+  <si>
+    <t>14ー10</t>
+  </si>
+  <si>
+    <t>14ー11</t>
+  </si>
+  <si>
+    <t>14ー12</t>
+  </si>
+  <si>
+    <t>14ー13</t>
+  </si>
+  <si>
+    <t>14ー14</t>
+  </si>
+  <si>
+    <t>update_complete.phpからindex.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_complete.phpの「TOPへ戻る」ボタンを押す。</t>
+    <rPh sb="25" eb="26">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンが押されたら、index.htmlに遷移させる。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB登録に失敗した場合は、「エラーが発生したため、DB登録できませんでした」と赤字で表示させる。</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update.phpで表示した内容を表示させる。パスワードに関しては、未入力でも可。入力があった場合は、セキュリティのため●で表示させる。</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化されたパスワードを抽出すると問題があるので、表示しない。</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14ー15</t>
+  </si>
+  <si>
+    <t>15ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9ー4</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田航昂</t>
+    <rPh sb="0" eb="3">
+      <t>シバタコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1806,7 +3247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1850,22 +3291,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1920,7 +3345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1954,20 +3379,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2249,10 +3671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3119,7 +4541,7 @@
       <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3135,8 +4557,8 @@
         <v>84</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="11" t="s">
-        <v>169</v>
+      <c r="H30" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>15</v>
@@ -3149,7 +4571,7 @@
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3179,7 +4601,7 @@
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3209,7 +4631,7 @@
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3239,7 +4661,7 @@
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3269,7 +4691,7 @@
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3299,7 +4721,7 @@
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3329,7 +4751,7 @@
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3345,8 +4767,8 @@
         <v>94</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="11" t="s">
-        <v>169</v>
+      <c r="H37" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>15</v>
@@ -3359,7 +4781,7 @@
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3389,7 +4811,7 @@
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3419,7 +4841,7 @@
       <c r="A40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3449,7 +4871,7 @@
       <c r="A41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3479,7 +4901,7 @@
       <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3509,24 +4931,24 @@
       <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>15</v>
@@ -3539,7 +4961,7 @@
       <c r="A44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -3612,7 +5034,7 @@
         <v>142</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
@@ -3795,8 +5217,8 @@
         <v>147</v>
       </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="14" t="s">
-        <v>169</v>
+      <c r="H53" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>156</v>
@@ -3855,8 +5277,8 @@
         <v>149</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="15" t="s">
-        <v>177</v>
+      <c r="H55" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>156</v>
@@ -3930,7 +5352,7 @@
         <v>167</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>140</v>
@@ -3962,7 +5384,7 @@
         <v>168</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>141</v>
@@ -3987,6 +5409,2509 @@
       </c>
       <c r="J59" s="4">
         <v>45403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J61" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J62" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J63" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J64" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J65" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J66" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J67" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J68" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J69" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J70" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J71" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J72" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J74" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J75" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J76" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J78" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J79" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J80" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J81" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J83" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J84" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J85" s="1">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J86" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J87" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J88" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J89" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J90" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J91" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J92" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J93" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J94" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J96" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J97" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J98" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J99" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J100" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J101" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J102" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J103" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J104" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J105" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J106" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J107" s="4">
+        <v>45425</v>
+      </c>
+      <c r="K107" s="14"/>
+    </row>
+    <row r="108" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+    </row>
+    <row r="109" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J109" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J110" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J111" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J112" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J113" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J114" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J115" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J116" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J117" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J118" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J119" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J120" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J122" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J123" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J124" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J125" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J126" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J127" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J128" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J129" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J130" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J131" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J132" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J133" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J135" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J136" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J137" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J138" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J139" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J140" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J141" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J142" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J143" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J144" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J145" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J146" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J147" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J148" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J149" s="4">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J151" s="4">
+        <v>45425</v>
       </c>
     </row>
   </sheetData>

--- a/Test_02.xlsx
+++ b/Test_02.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="421">
   <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
@@ -3219,14 +3219,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3240,6 +3232,440 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpからindex.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しい組み合わせである場合のみ、index.phpに遷移する。未入力であるばら、遷移させずに、エラー文を赤字で出す。またメールアドレスとパスワードの組み合わせが異なり、ログインできない場合もエラー文を出し、遷移させない。</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpに正しいメールアドレスを入力する。</t>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpに正しいパスワードを入力する。</t>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16ー2</t>
+  </si>
+  <si>
+    <t>17ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.phpからlist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17ー2</t>
+  </si>
+  <si>
+    <t>17ー3</t>
+  </si>
+  <si>
+    <t>17ー4</t>
+  </si>
+  <si>
+    <t>17ー5</t>
+  </si>
+  <si>
+    <t>17ー6</t>
+  </si>
+  <si>
+    <t>17ー7</t>
+  </si>
+  <si>
+    <t>17ー8</t>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.phpに入力した状態で「検索」ボタンを押す。</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「検索」ボタンがあり、それを目視。</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もし名前（姓）が入力されていて、「検索」ボタンを押したとき、そのアカウントを表示させる。また、検索フォームに入力された文字に一致しているアカウントすべてを表示させる。</t>
+    <rPh sb="2" eb="4">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「検索」ボタンが押されたとき、検索結果を表示する。</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もし名前（姓）が入力されていて、「検索」ボタンを押したとき、そのアカウントを表示させる。また、検索フォームに入力された文字に一致しているアカウントすべてを表示させる。初期値が「男」である。</t>
+    <rPh sb="2" eb="4">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もし名前（姓）が入力されていて、「検索」ボタンを押したとき、そのアカウントを表示させる。また、検索フォームに入力された文字に一致しているアカウントすべてを表示させる。初期値が「一般」である。</t>
+    <rPh sb="2" eb="4">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田</t>
+    <rPh sb="0" eb="2">
+      <t>シバタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16ー3</t>
+  </si>
+  <si>
+    <t>DBエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB接続</t>
+    <rPh sb="2" eb="4">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpの画面に遷移する。</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBとの接続に失敗してエラーの時は、赤字でエラー文を出す。</t>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3671,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6572,7 +6998,7 @@
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>371</v>
+        <v>29</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>370</v>
@@ -6632,7 +7058,7 @@
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>370</v>
@@ -6662,7 +7088,7 @@
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>370</v>
@@ -6735,7 +7161,7 @@
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>370</v>
@@ -6945,7 +7371,7 @@
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>370</v>
@@ -6975,7 +7401,7 @@
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>370</v>
@@ -7005,7 +7431,7 @@
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>370</v>
@@ -7035,7 +7461,7 @@
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>370</v>
@@ -7065,7 +7491,7 @@
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>370</v>
@@ -7095,7 +7521,7 @@
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>370</v>
@@ -7125,7 +7551,7 @@
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>370</v>
@@ -7155,7 +7581,7 @@
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>370</v>
@@ -7185,7 +7611,7 @@
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>370</v>
@@ -7215,7 +7641,7 @@
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>370</v>
@@ -7245,7 +7671,7 @@
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>370</v>
@@ -7275,7 +7701,7 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>370</v>
@@ -7305,7 +7731,7 @@
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>370</v>
@@ -7335,7 +7761,7 @@
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>370</v>
@@ -7365,7 +7791,7 @@
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>370</v>
@@ -7395,7 +7821,7 @@
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>370</v>
@@ -7425,7 +7851,7 @@
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>370</v>
@@ -7912,6 +8338,336 @@
       </c>
       <c r="J151" s="4">
         <v>45425</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J153" s="4">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="92.4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J154" s="4">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J155" s="4">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J157" s="4">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J158" s="4">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J159" s="4">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J160" s="4">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J161" s="4">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J162" s="4">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J163" s="4">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J164" s="4">
+        <v>45436</v>
       </c>
     </row>
   </sheetData>

--- a/Test_02.xlsx
+++ b/Test_02.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="438">
   <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
@@ -3668,12 +3668,155 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>18ー1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.phpからregist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」でログインしているとき、urlでregist.phpと打つ。</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.phpからlist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.phpからdelete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.phpからupdate.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18ー2</t>
+  </si>
+  <si>
+    <t>18ー3</t>
+  </si>
+  <si>
+    <t>18ー4</t>
+  </si>
+  <si>
+    <t>「一般」でログインしているとき、urlでlist.phpと打つ。</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」でログインしているとき、urlでdelete.phpと打つ。</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」でログインしているとき、urlでupdate.phpと打つ。</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」であるので、アカウント登録画面の表示はさせない。</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」であるので、アカウントi一覧画面の表示はさせない。</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」であるので、アカウント削除画面の表示はさせない。</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」であるので、アカウント更新画面の表示はさせない。</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」であるのに遷移してしまう。</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4097,13 +4240,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J156" sqref="J156"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
@@ -4117,13 +4260,13 @@
     <col min="10" max="10" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -4153,7 +4296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4183,7 +4326,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="26.4" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>101</v>
       </c>
@@ -4213,7 +4356,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="33" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>102</v>
       </c>
@@ -4243,7 +4386,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="33.6" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>103</v>
       </c>
@@ -4273,7 +4416,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="26.4">
       <c r="A7" s="3" t="s">
         <v>104</v>
       </c>
@@ -4303,7 +4446,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="26.4">
       <c r="A8" s="3" t="s">
         <v>105</v>
       </c>
@@ -4333,7 +4476,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="26.4">
       <c r="A9" s="3" t="s">
         <v>106</v>
       </c>
@@ -4363,7 +4506,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="52.8">
       <c r="A10" s="3" t="s">
         <v>107</v>
       </c>
@@ -4393,7 +4536,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="26.4">
       <c r="A11" s="3" t="s">
         <v>108</v>
       </c>
@@ -4423,7 +4566,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="26.4">
       <c r="A12" s="3" t="s">
         <v>109</v>
       </c>
@@ -4453,7 +4596,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="26.4">
       <c r="A13" s="3" t="s">
         <v>110</v>
       </c>
@@ -4483,7 +4626,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="26.4">
       <c r="A14" s="3" t="s">
         <v>111</v>
       </c>
@@ -4513,7 +4656,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="26.4">
       <c r="A15" s="3" t="s">
         <v>112</v>
       </c>
@@ -4543,7 +4686,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="26.4">
       <c r="A16" s="3" t="s">
         <v>122</v>
       </c>
@@ -4573,7 +4716,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="26.4">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -4603,7 +4746,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="55.2" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -4633,7 +4776,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="45.6" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -4663,7 +4806,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="39.6">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -4693,7 +4836,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="39.6">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -4723,7 +4866,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="39.6">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -4753,7 +4896,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="39.6">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -4783,7 +4926,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="39.6">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -4813,7 +4956,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="39.6">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -4843,7 +4986,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="39.6">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -4873,7 +5016,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="39.6">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -4903,7 +5046,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="42.6" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -4933,7 +5076,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="43.2" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -4963,7 +5106,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="52.8">
       <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
@@ -4993,7 +5136,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="39.6">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -5023,7 +5166,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="39.6">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -5053,7 +5196,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="39.6">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -5083,7 +5226,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="39.6">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -5113,7 +5256,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="39.6">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -5143,7 +5286,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="79.2">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -5173,7 +5316,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="52.8">
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
@@ -5203,7 +5346,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="39.6">
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
@@ -5233,7 +5376,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="39.6">
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
@@ -5263,7 +5406,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="39.6">
       <c r="A40" s="3" t="s">
         <v>68</v>
       </c>
@@ -5293,7 +5436,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="39.6">
       <c r="A41" s="3" t="s">
         <v>69</v>
       </c>
@@ -5323,7 +5466,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="52.8">
       <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
@@ -5353,7 +5496,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="39.6">
       <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
@@ -5383,7 +5526,7 @@
         <v>45404</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="26.4">
       <c r="A44" s="3" t="s">
         <v>100</v>
       </c>
@@ -5413,7 +5556,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="52.8">
       <c r="A46" s="1">
         <v>5</v>
       </c>
@@ -5443,7 +5586,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="24.6" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>126</v>
       </c>
@@ -5473,7 +5616,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="39.6">
       <c r="A48" s="9" t="s">
         <v>157</v>
       </c>
@@ -5503,7 +5646,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="39.6">
       <c r="A49" s="9" t="s">
         <v>158</v>
       </c>
@@ -5533,7 +5676,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="39.6">
       <c r="A50" s="9" t="s">
         <v>159</v>
       </c>
@@ -5563,7 +5706,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="39.6">
       <c r="A51" s="9" t="s">
         <v>160</v>
       </c>
@@ -5593,7 +5736,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="39.6">
       <c r="A52" s="9" t="s">
         <v>161</v>
       </c>
@@ -5623,7 +5766,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="46.8" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>162</v>
       </c>
@@ -5653,7 +5796,7 @@
         <v>45404</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="54.6" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>163</v>
       </c>
@@ -5683,7 +5826,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="54.6" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>164</v>
       </c>
@@ -5713,7 +5856,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="46.8" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>165</v>
       </c>
@@ -5743,7 +5886,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="39.6">
       <c r="A57" s="9" t="s">
         <v>166</v>
       </c>
@@ -5773,7 +5916,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="26.4">
       <c r="A58" s="9" t="s">
         <v>167</v>
       </c>
@@ -5805,7 +5948,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="26.4">
       <c r="A59" s="9" t="s">
         <v>168</v>
       </c>
@@ -5837,7 +5980,7 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="39.6">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -5867,7 +6010,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="39.6">
       <c r="A62" s="1" t="s">
         <v>193</v>
       </c>
@@ -5897,7 +6040,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="39.6">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -5927,7 +6070,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="39.6">
       <c r="A64" s="1" t="s">
         <v>195</v>
       </c>
@@ -5957,7 +6100,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="39.6">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -5987,7 +6130,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="26.4">
       <c r="A66" s="1" t="s">
         <v>197</v>
       </c>
@@ -6017,7 +6160,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="39.6">
       <c r="A67" s="1" t="s">
         <v>198</v>
       </c>
@@ -6047,7 +6190,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="39.6">
       <c r="A68" s="1" t="s">
         <v>199</v>
       </c>
@@ -6077,7 +6220,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="39.6">
       <c r="A69" s="1" t="s">
         <v>200</v>
       </c>
@@ -6107,7 +6250,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="39.6">
       <c r="A70" s="1" t="s">
         <v>201</v>
       </c>
@@ -6137,7 +6280,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="39.6">
       <c r="A71" s="1" t="s">
         <v>202</v>
       </c>
@@ -6167,7 +6310,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="39.6">
       <c r="A72" s="1" t="s">
         <v>203</v>
       </c>
@@ -6197,7 +6340,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="26.4">
       <c r="A74" s="1" t="s">
         <v>204</v>
       </c>
@@ -6227,7 +6370,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="39.6">
       <c r="A75" s="1" t="s">
         <v>208</v>
       </c>
@@ -6257,7 +6400,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="39.6">
       <c r="A76" s="1" t="s">
         <v>209</v>
       </c>
@@ -6287,7 +6430,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="26.4" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>213</v>
       </c>
@@ -6317,7 +6460,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="26.4">
       <c r="A79" s="1" t="s">
         <v>217</v>
       </c>
@@ -6347,7 +6490,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="26.4">
       <c r="A80" s="1" t="s">
         <v>218</v>
       </c>
@@ -6377,7 +6520,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="39.6">
       <c r="A81" s="1" t="s">
         <v>368</v>
       </c>
@@ -6407,7 +6550,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="39.6">
       <c r="A83" s="1" t="s">
         <v>224</v>
       </c>
@@ -6437,7 +6580,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="39.6">
       <c r="A84" s="1" t="s">
         <v>241</v>
       </c>
@@ -6467,7 +6610,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="39.6">
       <c r="A85" s="1" t="s">
         <v>242</v>
       </c>
@@ -6497,7 +6640,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="39.6">
       <c r="A86" s="1" t="s">
         <v>243</v>
       </c>
@@ -6527,7 +6670,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="39.6">
       <c r="A87" s="1" t="s">
         <v>244</v>
       </c>
@@ -6557,7 +6700,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="39.6">
       <c r="A88" s="1" t="s">
         <v>245</v>
       </c>
@@ -6587,7 +6730,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="39.6">
       <c r="A89" s="1" t="s">
         <v>246</v>
       </c>
@@ -6617,7 +6760,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="39.6">
       <c r="A90" s="1" t="s">
         <v>247</v>
       </c>
@@ -6647,7 +6790,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="39.6">
       <c r="A91" s="1" t="s">
         <v>248</v>
       </c>
@@ -6677,7 +6820,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="39.6">
       <c r="A92" s="1" t="s">
         <v>249</v>
       </c>
@@ -6707,7 +6850,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="39.6">
       <c r="A93" s="1" t="s">
         <v>250</v>
       </c>
@@ -6737,7 +6880,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="39.6">
       <c r="A94" s="1" t="s">
         <v>251</v>
       </c>
@@ -6767,7 +6910,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="26.4">
       <c r="A96" s="1" t="s">
         <v>252</v>
       </c>
@@ -6797,7 +6940,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="26.4">
       <c r="A97" s="1" t="s">
         <v>270</v>
       </c>
@@ -6827,7 +6970,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="26.4">
       <c r="A98" s="1" t="s">
         <v>271</v>
       </c>
@@ -6857,7 +7000,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="26.4">
       <c r="A99" s="1" t="s">
         <v>272</v>
       </c>
@@ -6887,7 +7030,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="26.4">
       <c r="A100" s="1" t="s">
         <v>273</v>
       </c>
@@ -6917,7 +7060,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="52.8">
       <c r="A101" s="1" t="s">
         <v>274</v>
       </c>
@@ -6947,7 +7090,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="26.4">
       <c r="A102" s="1" t="s">
         <v>275</v>
       </c>
@@ -6977,7 +7120,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="26.4">
       <c r="A103" s="1" t="s">
         <v>276</v>
       </c>
@@ -7007,7 +7150,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="26.4">
       <c r="A104" s="1" t="s">
         <v>277</v>
       </c>
@@ -7037,7 +7180,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="26.4">
       <c r="A105" s="1" t="s">
         <v>278</v>
       </c>
@@ -7067,7 +7210,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="26.4">
       <c r="A106" s="1" t="s">
         <v>279</v>
       </c>
@@ -7097,7 +7240,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="72.599999999999994" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>280</v>
       </c>
@@ -7128,7 +7271,7 @@
       </c>
       <c r="K107" s="14"/>
     </row>
-    <row r="108" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="19.8" customHeight="1">
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
@@ -7140,7 +7283,7 @@
       <c r="J108" s="14"/>
       <c r="K108" s="14"/>
     </row>
-    <row r="109" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="71.400000000000006" customHeight="1">
       <c r="A109" s="7" t="s">
         <v>283</v>
       </c>
@@ -7170,7 +7313,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="71.400000000000006" customHeight="1">
       <c r="A110" s="7" t="s">
         <v>290</v>
       </c>
@@ -7200,7 +7343,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="67.2" customHeight="1">
       <c r="A111" s="7" t="s">
         <v>291</v>
       </c>
@@ -7230,7 +7373,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="68.400000000000006" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>292</v>
       </c>
@@ -7260,7 +7403,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="70.2" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>293</v>
       </c>
@@ -7290,7 +7433,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="53.4" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>294</v>
       </c>
@@ -7320,7 +7463,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="64.8" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>295</v>
       </c>
@@ -7350,7 +7493,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="72" customHeight="1">
       <c r="A116" s="7" t="s">
         <v>296</v>
       </c>
@@ -7380,7 +7523,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="70.8" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>297</v>
       </c>
@@ -7410,7 +7553,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="66" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>298</v>
       </c>
@@ -7440,7 +7583,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="66" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>299</v>
       </c>
@@ -7470,7 +7613,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="37.799999999999997" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>300</v>
       </c>
@@ -7500,7 +7643,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="39.6">
       <c r="A122" s="1" t="s">
         <v>304</v>
       </c>
@@ -7530,7 +7673,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="39.6">
       <c r="A123" s="1" t="s">
         <v>320</v>
       </c>
@@ -7560,7 +7703,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="39.6">
       <c r="A124" s="1" t="s">
         <v>321</v>
       </c>
@@ -7590,7 +7733,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="39.6">
       <c r="A125" s="1" t="s">
         <v>322</v>
       </c>
@@ -7620,7 +7763,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="39.6">
       <c r="A126" s="1" t="s">
         <v>323</v>
       </c>
@@ -7650,7 +7793,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="52.8">
       <c r="A127" s="1" t="s">
         <v>324</v>
       </c>
@@ -7680,7 +7823,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="39.6">
       <c r="A128" s="1" t="s">
         <v>325</v>
       </c>
@@ -7710,7 +7853,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="39.6">
       <c r="A129" s="1" t="s">
         <v>326</v>
       </c>
@@ -7740,7 +7883,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="39.6">
       <c r="A130" s="1" t="s">
         <v>327</v>
       </c>
@@ -7770,7 +7913,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="39.6">
       <c r="A131" s="1" t="s">
         <v>328</v>
       </c>
@@ -7800,7 +7943,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="39.6">
       <c r="A132" s="1" t="s">
         <v>329</v>
       </c>
@@ -7830,7 +7973,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="39.6">
       <c r="A133" s="1" t="s">
         <v>330</v>
       </c>
@@ -7860,7 +8003,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="54" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>331</v>
       </c>
@@ -7890,7 +8033,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="53.4" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>344</v>
       </c>
@@ -7920,7 +8063,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="51" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>345</v>
       </c>
@@ -7950,7 +8093,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="52.2" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>346</v>
       </c>
@@ -7980,7 +8123,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="52.8" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>347</v>
       </c>
@@ -8010,7 +8153,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="58.8" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>348</v>
       </c>
@@ -8040,7 +8183,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="49.8" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>349</v>
       </c>
@@ -8070,7 +8213,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="49.2" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>350</v>
       </c>
@@ -8100,7 +8243,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="50.4" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>351</v>
       </c>
@@ -8130,7 +8273,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="50.4" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>352</v>
       </c>
@@ -8160,7 +8303,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="49.8" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>353</v>
       </c>
@@ -8190,7 +8333,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="49.2" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>354</v>
       </c>
@@ -8220,7 +8363,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="49.8" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>355</v>
       </c>
@@ -8250,7 +8393,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="53.4" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>356</v>
       </c>
@@ -8280,7 +8423,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="48.6" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>366</v>
       </c>
@@ -8310,7 +8453,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="26.4">
       <c r="A151" s="1" t="s">
         <v>367</v>
       </c>
@@ -8340,7 +8483,7 @@
         <v>45425</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="92.4">
       <c r="A153" s="1" t="s">
         <v>378</v>
       </c>
@@ -8370,7 +8513,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="92.4">
       <c r="A154" s="1" t="s">
         <v>386</v>
       </c>
@@ -8400,7 +8543,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="30" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>416</v>
       </c>
@@ -8430,7 +8573,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="66">
       <c r="A157" s="4" t="s">
         <v>387</v>
       </c>
@@ -8460,7 +8603,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="66">
       <c r="A158" s="4" t="s">
         <v>397</v>
       </c>
@@ -8490,7 +8633,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="66">
       <c r="A159" s="4" t="s">
         <v>398</v>
       </c>
@@ -8520,7 +8663,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="66">
       <c r="A160" s="4" t="s">
         <v>399</v>
       </c>
@@ -8550,7 +8693,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="66" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="66">
       <c r="A161" s="4" t="s">
         <v>400</v>
       </c>
@@ -8580,7 +8723,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="89.4" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>401</v>
       </c>
@@ -8610,7 +8753,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="81.599999999999994" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>402</v>
       </c>
@@ -8640,7 +8783,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="31.2" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>403</v>
       </c>
@@ -8668,6 +8811,126 @@
       </c>
       <c r="J164" s="4">
         <v>45436</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="26.4">
+      <c r="A166" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J166" s="4">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="26.4">
+      <c r="A167" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="G167" s="1"/>
+      <c r="H167" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J167" s="4">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="26.4">
+      <c r="A168" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="G168" s="1"/>
+      <c r="H168" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J168" s="4">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="26.4">
+      <c r="A169" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="G169" s="1"/>
+      <c r="H169" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J169" s="4">
+        <v>45439</v>
       </c>
     </row>
   </sheetData>
